--- a/regions/country_list (ISO3 code).xlsx
+++ b/regions/country_list (ISO3 code).xlsx
@@ -5378,9 +5378,6 @@
     <t>la República Unida de Tanzanía</t>
   </si>
   <si>
-    <t>Tanzanía</t>
-  </si>
-  <si>
     <t>la République-Unie de Tanzanie</t>
   </si>
   <si>
@@ -6657,6 +6654,9 @@
   </si>
   <si>
     <t>compare ListFR-FR_SNAME</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
   </si>
 </sst>
 </file>
@@ -8495,6 +8495,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9898380" cy="12816840"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8788,8 +8836,8 @@
   <dimension ref="A1:BC267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8798,7 +8846,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" customWidth="1"/>
     <col min="7" max="7" width="32.109375" customWidth="1"/>
     <col min="8" max="8" width="6.5546875" customWidth="1"/>
@@ -8833,46 +8881,46 @@
   <sheetData>
     <row r="1" spans="1:39" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>2188</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>2174</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>1921</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>2189</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="M1" s="33" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O1" s="26"/>
       <c r="P1" s="33" t="s">
@@ -8926,7 +8974,7 @@
         <v>17</v>
       </c>
       <c r="AI1" s="36" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="AJ1" s="37" t="s">
         <v>18</v>
@@ -9089,7 +9137,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O3" s="27"/>
       <c r="P3" s="9" t="s">
@@ -9428,7 +9476,7 @@
         <v>62</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O6" s="27"/>
       <c r="P6" s="9" t="s">
@@ -9518,7 +9566,7 @@
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="K7" s="42" t="str">
         <f t="shared" si="2"/>
@@ -9526,19 +9574,19 @@
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="39" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>71</v>
       </c>
       <c r="Q7" s="27" t="s">
+        <v>1924</v>
+      </c>
+      <c r="R7" s="27" t="s">
         <v>1925</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>1926</v>
       </c>
       <c r="T7" s="29"/>
       <c r="U7" s="29"/>
@@ -9748,7 +9796,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="O9" s="27"/>
       <c r="P9" s="9" t="s">
@@ -9974,7 +10022,7 @@
         <v>110</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O11" s="27"/>
       <c r="P11" s="9" t="s">
@@ -10279,7 +10327,7 @@
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="K14" s="42" t="str">
         <f t="shared" si="2"/>
@@ -10287,19 +10335,19 @@
       </c>
       <c r="L14" s="42"/>
       <c r="M14" s="39" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>138</v>
       </c>
       <c r="Q14" s="27" t="s">
+        <v>1928</v>
+      </c>
+      <c r="R14" s="27" t="s">
         <v>1929</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>1930</v>
       </c>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
@@ -10396,7 +10444,7 @@
         <v>146</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="9" t="s">
@@ -10509,7 +10557,7 @@
         <v>150</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="O16" s="27"/>
       <c r="P16" s="14" t="s">
@@ -10622,7 +10670,7 @@
         <v>157</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="O17" s="27"/>
       <c r="P17" s="14" t="s">
@@ -10735,7 +10783,7 @@
         <v>168</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="9" t="s">
@@ -11074,7 +11122,7 @@
         <v>194</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="9" t="s">
@@ -11145,13 +11193,13 @@
     </row>
     <row r="22" spans="1:39" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E22" s="42" t="str">
         <f t="shared" si="0"/>
@@ -11159,7 +11207,7 @@
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H22" s="42" t="str">
         <f t="shared" si="1"/>
@@ -11167,7 +11215,7 @@
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="39" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K22" s="42" t="str">
         <f t="shared" si="2"/>
@@ -11175,30 +11223,30 @@
       </c>
       <c r="L22" s="42"/>
       <c r="M22" s="39" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="P22" s="27" t="s">
+        <v>1917</v>
+      </c>
+      <c r="Q22" s="27" t="s">
         <v>1918</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>1919</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>1920</v>
       </c>
       <c r="T22" s="29"/>
       <c r="U22" s="29"/>
       <c r="V22" s="27" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="W22" s="27" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="AJ22" s="27" t="s">
         <v>27</v>
@@ -11474,7 +11522,7 @@
         <v>215</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O25" s="27"/>
       <c r="P25" s="9" t="s">
@@ -11813,7 +11861,7 @@
         <v>240</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="O28" s="27"/>
       <c r="P28" s="4" t="s">
@@ -11917,7 +11965,7 @@
         <v>249</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>244</v>
@@ -11931,7 +11979,7 @@
       <c r="T29" s="29"/>
       <c r="U29" s="29"/>
       <c r="V29" s="27" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="W29" s="27" t="s">
         <v>244</v>
@@ -12026,7 +12074,7 @@
         <v>258</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="O30" s="27"/>
       <c r="P30" s="9" t="s">
@@ -12339,7 +12387,7 @@
         <v>NO</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>276</v>
@@ -12349,7 +12397,7 @@
         <v>NO</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>276</v>
@@ -12359,13 +12407,13 @@
         <v>NO</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="M33" s="31" t="s">
         <v>281</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="O33" s="27"/>
       <c r="P33" s="14" t="s">
@@ -12808,7 +12856,7 @@
         <v>313</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="O37" s="27"/>
       <c r="P37" s="9" t="s">
@@ -12879,10 +12927,10 @@
     </row>
     <row r="38" spans="1:39" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E38" s="42" t="str">
         <f t="shared" si="0"/>
@@ -12890,7 +12938,7 @@
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="H38" s="42" t="str">
         <f t="shared" si="1"/>
@@ -12898,7 +12946,7 @@
       </c>
       <c r="I38" s="39"/>
       <c r="J38" s="39" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="K38" s="42" t="str">
         <f t="shared" si="2"/>
@@ -12906,19 +12954,19 @@
       </c>
       <c r="L38" s="42"/>
       <c r="M38" s="39" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="Q38" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="R38" s="27" t="s">
         <v>1996</v>
-      </c>
-      <c r="R38" s="27" t="s">
-        <v>1997</v>
       </c>
       <c r="T38" s="29"/>
       <c r="U38" s="29"/>
@@ -13080,7 +13128,7 @@
         <v>330</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="O40" s="27"/>
       <c r="P40" s="9" t="s">
@@ -13264,10 +13312,10 @@
     </row>
     <row r="42" spans="1:39" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E42" s="42" t="str">
         <f t="shared" si="0"/>
@@ -13275,7 +13323,7 @@
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="39" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H42" s="42" t="str">
         <f t="shared" si="1"/>
@@ -13283,7 +13331,7 @@
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="39" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="K42" s="42" t="str">
         <f t="shared" si="2"/>
@@ -13291,19 +13339,19 @@
       </c>
       <c r="L42" s="42"/>
       <c r="M42" s="39" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="P42" s="27" t="s">
+        <v>1997</v>
+      </c>
+      <c r="Q42" s="27" t="s">
         <v>1998</v>
       </c>
-      <c r="Q42" s="27" t="s">
+      <c r="R42" s="27" t="s">
         <v>1999</v>
-      </c>
-      <c r="R42" s="27" t="s">
-        <v>2000</v>
       </c>
       <c r="T42" s="29"/>
       <c r="U42" s="29"/>
@@ -13352,7 +13400,7 @@
         <v>346</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="O43" s="27"/>
       <c r="P43" s="9" t="s">
@@ -13691,7 +13739,7 @@
         <v>370</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="O46" s="27"/>
       <c r="P46" s="9" t="s">
@@ -13804,7 +13852,7 @@
         <v>381</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="O47" s="27"/>
       <c r="P47" s="9" t="s">
@@ -13917,7 +13965,7 @@
         <v>390</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="O48" s="27"/>
       <c r="P48" s="9" t="s">
@@ -14030,7 +14078,7 @@
         <v>400</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="O49" s="27"/>
       <c r="P49" s="9" t="s">
@@ -14143,7 +14191,7 @@
         <v>411</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O50" s="27"/>
       <c r="P50" s="9" t="s">
@@ -14256,7 +14304,7 @@
         <v>419</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O51" s="27"/>
       <c r="P51" s="9" t="s">
@@ -14876,10 +14924,10 @@
     </row>
     <row r="57" spans="1:39" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E57" s="42" t="str">
         <f t="shared" si="0"/>
@@ -14887,7 +14935,7 @@
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="39" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="H57" s="42" t="str">
         <f t="shared" si="1"/>
@@ -14895,7 +14943,7 @@
       </c>
       <c r="I57" s="39"/>
       <c r="J57" s="39" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K57" s="42" t="str">
         <f t="shared" si="2"/>
@@ -14903,19 +14951,19 @@
       </c>
       <c r="L57" s="42"/>
       <c r="M57" s="39" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="N57" s="27" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="P57" s="27" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q57" s="27" t="s">
+        <v>2000</v>
+      </c>
+      <c r="R57" s="27" t="s">
         <v>2001</v>
-      </c>
-      <c r="R57" s="27" t="s">
-        <v>2002</v>
       </c>
       <c r="T57" s="29"/>
       <c r="U57" s="29"/>
@@ -14964,7 +15012,7 @@
         <v>462</v>
       </c>
       <c r="N58" s="27" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="O58" s="27"/>
       <c r="P58" s="9" t="s">
@@ -15190,7 +15238,7 @@
         <v>482</v>
       </c>
       <c r="N60" s="27" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="O60" s="27"/>
       <c r="P60" s="9" t="s">
@@ -15303,7 +15351,7 @@
         <v>491</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="O61" s="27"/>
       <c r="P61" s="9" t="s">
@@ -15755,7 +15803,7 @@
         <v>525</v>
       </c>
       <c r="N65" s="27" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="O65" s="27"/>
       <c r="P65" s="9" t="s">
@@ -15868,7 +15916,7 @@
         <v>534</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="O66" s="27"/>
       <c r="P66" s="9" t="s">
@@ -15981,7 +16029,7 @@
         <v>543</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="O67" s="27"/>
       <c r="P67" s="9" t="s">
@@ -16094,7 +16142,7 @@
         <v>552</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="O68" s="27"/>
       <c r="P68" s="9" t="s">
@@ -16207,7 +16255,7 @@
         <v>558</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="O69" s="27"/>
       <c r="P69" s="9" t="s">
@@ -16320,7 +16368,7 @@
         <v>567</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="O70" s="27"/>
       <c r="P70" s="9" t="s">
@@ -16433,7 +16481,7 @@
         <v>576</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="O71" s="27"/>
       <c r="P71" s="9" t="s">
@@ -16546,7 +16594,7 @@
         <v>585</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="O72" s="27"/>
       <c r="P72" s="9" t="s">
@@ -16659,7 +16707,7 @@
         <v>593</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="O73" s="27"/>
       <c r="P73" s="9" t="s">
@@ -16879,13 +16927,13 @@
         <v>NO</v>
       </c>
       <c r="L75" s="25" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="M75" s="31" t="s">
         <v>611</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="O75" s="27"/>
       <c r="P75" s="9" t="s">
@@ -16998,7 +17046,7 @@
         <v>137</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="O76" s="27"/>
       <c r="P76" s="9" t="s">
@@ -17111,7 +17159,7 @@
         <v>627</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="O77" s="27"/>
       <c r="P77" s="9" t="s">
@@ -17198,7 +17246,7 @@
         <v>NO</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G78" s="31" t="s">
         <v>635</v>
@@ -17208,7 +17256,7 @@
         <v>NO</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="J78" s="31" t="s">
         <v>635</v>
@@ -17218,13 +17266,13 @@
         <v>NO</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>637</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="O78" s="27"/>
       <c r="P78" s="9" t="s">
@@ -17337,7 +17385,7 @@
         <v>640</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="O79" s="27"/>
       <c r="P79" s="9" t="s">
@@ -17450,7 +17498,7 @@
         <v>653</v>
       </c>
       <c r="N80" s="27" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="O80" s="27"/>
       <c r="P80" s="9" t="s">
@@ -17563,7 +17611,7 @@
         <v>659</v>
       </c>
       <c r="N81" s="27" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="O81" s="27"/>
       <c r="P81" s="9" t="s">
@@ -17664,7 +17712,7 @@
       </c>
       <c r="L82" s="42"/>
       <c r="M82" s="39" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="N82" s="27" t="s">
         <v>662</v>
@@ -17676,7 +17724,7 @@
         <v>662</v>
       </c>
       <c r="R82" s="27" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="T82" s="29"/>
       <c r="U82" s="29"/>
@@ -17773,7 +17821,7 @@
         <v>668</v>
       </c>
       <c r="N83" s="27" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="P83" s="27" t="s">
         <v>670</v>
@@ -17952,7 +18000,7 @@
         <v>682</v>
       </c>
       <c r="N85" s="27" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="P85" s="27" t="s">
         <v>679</v>
@@ -18122,7 +18170,7 @@
         <v>694</v>
       </c>
       <c r="N87" s="27" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="O87" s="27"/>
       <c r="P87" s="9" t="s">
@@ -18235,7 +18283,7 @@
         <v>704</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="O88" s="27"/>
       <c r="P88" s="9" t="s">
@@ -18348,7 +18396,7 @@
         <v>713</v>
       </c>
       <c r="N89" s="27" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="O89" s="27"/>
       <c r="P89" s="9" t="s">
@@ -18461,7 +18509,7 @@
         <v>722</v>
       </c>
       <c r="N90" s="27" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="O90" s="27"/>
       <c r="P90" s="9" t="s">
@@ -18667,7 +18715,7 @@
       </c>
       <c r="I92" s="39"/>
       <c r="J92" s="39" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="K92" s="42" t="str">
         <f t="shared" si="5"/>
@@ -18675,19 +18723,19 @@
       </c>
       <c r="L92" s="42"/>
       <c r="M92" s="39" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="N92" s="27" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="P92" s="27" t="s">
         <v>732</v>
       </c>
       <c r="Q92" s="27" t="s">
+        <v>1933</v>
+      </c>
+      <c r="R92" s="27" t="s">
         <v>1934</v>
-      </c>
-      <c r="R92" s="27" t="s">
-        <v>1935</v>
       </c>
       <c r="T92" s="29"/>
       <c r="U92" s="29"/>
@@ -18891,7 +18939,7 @@
         <v>747</v>
       </c>
       <c r="N94" s="27" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="P94" s="27" t="s">
         <v>751</v>
@@ -19071,7 +19119,7 @@
         <v>752</v>
       </c>
       <c r="N96" s="27" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="P96" s="27" t="s">
         <v>754</v>
@@ -19177,10 +19225,10 @@
         <v>759</v>
       </c>
       <c r="Q97" s="27" t="s">
+        <v>1935</v>
+      </c>
+      <c r="R97" s="27" t="s">
         <v>1936</v>
-      </c>
-      <c r="R97" s="27" t="s">
-        <v>1937</v>
       </c>
       <c r="T97" s="29"/>
       <c r="U97" s="29"/>
@@ -19257,7 +19305,7 @@
       </c>
       <c r="I98" s="39"/>
       <c r="J98" s="39" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="K98" s="42" t="str">
         <f t="shared" si="5"/>
@@ -19265,19 +19313,19 @@
       </c>
       <c r="L98" s="42"/>
       <c r="M98" s="39" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="N98" s="27" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="P98" s="27" t="s">
         <v>764</v>
       </c>
       <c r="Q98" s="27" t="s">
+        <v>1937</v>
+      </c>
+      <c r="R98" s="27" t="s">
         <v>1938</v>
-      </c>
-      <c r="R98" s="27" t="s">
-        <v>1939</v>
       </c>
       <c r="T98" s="29"/>
       <c r="U98" s="29"/>
@@ -19486,7 +19534,7 @@
         <v>782</v>
       </c>
       <c r="N100" s="27" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="P100" s="27" t="s">
         <v>778</v>
@@ -19710,7 +19758,7 @@
         <v>798</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="P102" s="27" t="s">
         <v>794</v>
@@ -19822,7 +19870,7 @@
         <v>806</v>
       </c>
       <c r="N103" s="27" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="P103" s="27" t="s">
         <v>803</v>
@@ -19914,7 +19962,7 @@
       </c>
       <c r="I104" s="39"/>
       <c r="J104" s="39" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="K104" s="42" t="str">
         <f t="shared" si="5"/>
@@ -19922,19 +19970,19 @@
       </c>
       <c r="L104" s="42"/>
       <c r="M104" s="39" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="N104" s="27" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="P104" s="27" t="s">
         <v>810</v>
       </c>
       <c r="Q104" s="27" t="s">
+        <v>1939</v>
+      </c>
+      <c r="R104" s="27" t="s">
         <v>1940</v>
-      </c>
-      <c r="R104" s="27" t="s">
-        <v>1941</v>
       </c>
       <c r="T104" s="29"/>
       <c r="U104" s="29"/>
@@ -20034,7 +20082,7 @@
         <v>820</v>
       </c>
       <c r="N105" s="27" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="P105" s="27" t="s">
         <v>817</v>
@@ -20123,7 +20171,7 @@
       </c>
       <c r="I106" s="39"/>
       <c r="J106" s="39" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="K106" s="42" t="str">
         <f t="shared" si="5"/>
@@ -20131,19 +20179,19 @@
       </c>
       <c r="L106" s="42"/>
       <c r="M106" s="39" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="N106" s="27" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="P106" s="27" t="s">
         <v>823</v>
       </c>
       <c r="Q106" s="27" t="s">
+        <v>1943</v>
+      </c>
+      <c r="R106" s="27" t="s">
         <v>1944</v>
-      </c>
-      <c r="R106" s="27" t="s">
-        <v>1945</v>
       </c>
       <c r="T106" s="29"/>
       <c r="U106" s="29"/>
@@ -20220,7 +20268,7 @@
       </c>
       <c r="I107" s="39"/>
       <c r="J107" s="39" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="K107" s="42" t="str">
         <f t="shared" si="5"/>
@@ -20228,19 +20276,19 @@
       </c>
       <c r="L107" s="42"/>
       <c r="M107" s="39" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N107" s="27" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="P107" s="27" t="s">
         <v>826</v>
       </c>
       <c r="Q107" s="27" t="s">
+        <v>1941</v>
+      </c>
+      <c r="R107" s="27" t="s">
         <v>1942</v>
-      </c>
-      <c r="R107" s="27" t="s">
-        <v>1943</v>
       </c>
       <c r="T107" s="29"/>
       <c r="U107" s="29"/>
@@ -20424,7 +20472,7 @@
         <v>NO</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="G109" s="31" t="s">
         <v>836</v>
@@ -20434,7 +20482,7 @@
         <v>NO</v>
       </c>
       <c r="I109" s="29" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="J109" s="31" t="s">
         <v>840</v>
@@ -20444,13 +20492,13 @@
         <v>NO</v>
       </c>
       <c r="L109" s="25" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>836</v>
       </c>
       <c r="N109" s="27" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O109" s="27"/>
       <c r="P109" s="9" t="s">
@@ -20563,7 +20611,7 @@
         <v>844</v>
       </c>
       <c r="N110" s="27" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="O110" s="27"/>
       <c r="P110" s="9" t="s">
@@ -20676,7 +20724,7 @@
         <v>858</v>
       </c>
       <c r="N111" s="27" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="O111" s="27"/>
       <c r="P111" s="9" t="s">
@@ -20902,7 +20950,7 @@
         <v>875</v>
       </c>
       <c r="N113" s="27" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="O113" s="27"/>
       <c r="P113" s="9" t="s">
@@ -21225,7 +21273,7 @@
         <v>896</v>
       </c>
       <c r="N116" s="27" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="O116" s="27"/>
       <c r="P116" s="9" t="s">
@@ -21338,7 +21386,7 @@
         <v>904</v>
       </c>
       <c r="N117" s="27" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="O117" s="27"/>
       <c r="P117" s="9" t="s">
@@ -21451,7 +21499,7 @@
         <v>908</v>
       </c>
       <c r="N118" s="27" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="O118" s="27"/>
       <c r="P118" s="9" t="s">
@@ -21564,7 +21612,7 @@
         <v>917</v>
       </c>
       <c r="N119" s="27" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="O119" s="27"/>
       <c r="P119" s="9" t="s">
@@ -21677,7 +21725,7 @@
         <v>930</v>
       </c>
       <c r="N120" s="27" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O120" s="27"/>
       <c r="P120" s="9" t="s">
@@ -21790,7 +21838,7 @@
         <v>939</v>
       </c>
       <c r="N121" s="27" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="O121" s="27"/>
       <c r="P121" s="9" t="s">
@@ -22016,7 +22064,7 @@
         <v>952</v>
       </c>
       <c r="N123" s="27" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="O123" s="27"/>
       <c r="P123" s="9" t="s">
@@ -22129,7 +22177,7 @@
         <v>961</v>
       </c>
       <c r="N124" s="27" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="O124" s="27"/>
       <c r="P124" s="9" t="s">
@@ -22329,7 +22377,7 @@
         <v>NO</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G126" s="31" t="s">
         <v>983</v>
@@ -22339,7 +22387,7 @@
         <v>NO</v>
       </c>
       <c r="I126" s="29" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="J126" s="31" t="s">
         <v>983</v>
@@ -22349,7 +22397,7 @@
         <v>NO</v>
       </c>
       <c r="L126" s="25" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="M126" s="31" t="s">
         <v>983</v>
@@ -22694,7 +22742,7 @@
         <v>1008</v>
       </c>
       <c r="N129" s="27" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="O129" s="27"/>
       <c r="P129" s="9" t="s">
@@ -22807,7 +22855,7 @@
         <v>1014</v>
       </c>
       <c r="N130" s="27" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="O130" s="27"/>
       <c r="P130" s="9" t="s">
@@ -23146,7 +23194,7 @@
         <v>1032</v>
       </c>
       <c r="N133" s="27" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="O133" s="27"/>
       <c r="P133" s="9" t="s">
@@ -23259,7 +23307,7 @@
         <v>1045</v>
       </c>
       <c r="N134" s="27" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="O134" s="27"/>
       <c r="P134" s="9" t="s">
@@ -23485,7 +23533,7 @@
         <v>1063</v>
       </c>
       <c r="N136" s="27" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="O136" s="27"/>
       <c r="P136" s="9" t="s">
@@ -23586,7 +23634,7 @@
         <v>1068</v>
       </c>
       <c r="N137" s="27" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="P137" s="27" t="s">
         <v>1066</v>
@@ -23683,7 +23731,7 @@
         <v>1075</v>
       </c>
       <c r="N138" s="27" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="P138" s="27" t="s">
         <v>1073</v>
@@ -23789,7 +23837,7 @@
         <v>1085</v>
       </c>
       <c r="N139" s="27" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="O139" s="27"/>
       <c r="P139" s="3" t="s">
@@ -23902,7 +23950,7 @@
         <v>1088</v>
       </c>
       <c r="N140" s="27" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="O140" s="27"/>
       <c r="P140" s="9" t="s">
@@ -23989,7 +24037,7 @@
         <v>NO</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G141" s="31" t="s">
         <v>1096</v>
@@ -23999,23 +24047,23 @@
         <v>NO</v>
       </c>
       <c r="I141" s="29" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="J141" s="31" t="s">
-        <v>1096</v>
+        <v>2199</v>
       </c>
       <c r="K141" s="25" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
       <c r="L141" s="25" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="M141" s="31" t="s">
         <v>1096</v>
       </c>
       <c r="N141" s="27" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="O141" s="27"/>
       <c r="P141" s="9" t="s">
@@ -24128,7 +24176,7 @@
         <v>1103</v>
       </c>
       <c r="N142" s="27" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="O142" s="27"/>
       <c r="P142" s="9" t="s">
@@ -24467,7 +24515,7 @@
         <v>1134</v>
       </c>
       <c r="N145" s="27" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="O145" s="27"/>
       <c r="P145" s="9" t="s">
@@ -24580,7 +24628,7 @@
         <v>1142</v>
       </c>
       <c r="N146" s="27" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="O146" s="27"/>
       <c r="P146" s="9" t="s">
@@ -24919,7 +24967,7 @@
         <v>1162</v>
       </c>
       <c r="N149" s="27" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="O149" s="27"/>
       <c r="P149" s="9" t="s">
@@ -25145,7 +25193,7 @@
         <v>1178</v>
       </c>
       <c r="N151" s="27" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="O151" s="27"/>
       <c r="P151" s="9" t="s">
@@ -25238,7 +25286,7 @@
       </c>
       <c r="I152" s="39"/>
       <c r="J152" s="39" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="K152" s="42" t="str">
         <f t="shared" si="8"/>
@@ -25246,19 +25294,19 @@
       </c>
       <c r="L152" s="42"/>
       <c r="M152" s="39" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="N152" s="27" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="P152" s="27" t="s">
         <v>1181</v>
       </c>
       <c r="Q152" s="27" t="s">
+        <v>1946</v>
+      </c>
+      <c r="R152" s="27" t="s">
         <v>1947</v>
-      </c>
-      <c r="R152" s="27" t="s">
-        <v>1948</v>
       </c>
       <c r="T152" s="29"/>
       <c r="U152" s="29"/>
@@ -25358,7 +25406,7 @@
         <v>1185</v>
       </c>
       <c r="N153" s="27" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="P153" s="27" t="s">
         <v>1187</v>
@@ -25470,7 +25518,7 @@
         <v>1197</v>
       </c>
       <c r="N154" s="27" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="P154" s="27" t="s">
         <v>1194</v>
@@ -25749,7 +25797,7 @@
         <v>1213</v>
       </c>
       <c r="N157" s="27" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="P157" s="27" t="s">
         <v>1208</v>
@@ -25974,7 +26022,7 @@
         <v>1227</v>
       </c>
       <c r="N159" s="27" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="O159" s="27"/>
       <c r="P159" s="9" t="s">
@@ -26045,10 +26093,10 @@
     </row>
     <row r="160" spans="1:39" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="27" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E160" s="42" t="str">
         <f t="shared" si="6"/>
@@ -26056,7 +26104,7 @@
       </c>
       <c r="F160" s="39"/>
       <c r="G160" s="39" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="H160" s="42" t="str">
         <f t="shared" si="7"/>
@@ -26064,7 +26112,7 @@
       </c>
       <c r="I160" s="39"/>
       <c r="J160" s="39" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="K160" s="42" t="str">
         <f t="shared" si="8"/>
@@ -26072,19 +26120,19 @@
       </c>
       <c r="L160" s="42"/>
       <c r="M160" s="39" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="N160" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="P160" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="Q160" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="R160" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="T160" s="29"/>
       <c r="U160" s="29"/>
@@ -26133,7 +26181,7 @@
         <v>1235</v>
       </c>
       <c r="N161" s="27" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="O161" s="27"/>
       <c r="P161" s="9" t="s">
@@ -26246,7 +26294,7 @@
         <v>1242</v>
       </c>
       <c r="N162" s="27" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="O162" s="27"/>
       <c r="P162" s="9" t="s">
@@ -26452,7 +26500,7 @@
       </c>
       <c r="I164" s="39"/>
       <c r="J164" s="39" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="K164" s="42" t="str">
         <f t="shared" si="8"/>
@@ -26460,19 +26508,19 @@
       </c>
       <c r="L164" s="42"/>
       <c r="M164" s="39" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="N164" s="27" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="P164" s="27" t="s">
         <v>1253</v>
       </c>
       <c r="Q164" s="27" t="s">
+        <v>1948</v>
+      </c>
+      <c r="R164" s="27" t="s">
         <v>1949</v>
-      </c>
-      <c r="R164" s="27" t="s">
-        <v>1950</v>
       </c>
       <c r="T164" s="29"/>
       <c r="U164" s="29"/>
@@ -26685,7 +26733,7 @@
         <v>1265</v>
       </c>
       <c r="N166" s="27" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="O166" s="27"/>
       <c r="P166" s="9" t="s">
@@ -26911,7 +26959,7 @@
         <v>1285</v>
       </c>
       <c r="N168" s="27" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="O168" s="27"/>
       <c r="P168" s="9" t="s">
@@ -27363,7 +27411,7 @@
         <v>1316</v>
       </c>
       <c r="N172" s="27" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="O172" s="27"/>
       <c r="P172" s="9" t="s">
@@ -27589,7 +27637,7 @@
         <v>1327</v>
       </c>
       <c r="N174" s="27" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="O174" s="27"/>
       <c r="P174" s="9" t="s">
@@ -27795,7 +27843,7 @@
       </c>
       <c r="I176" s="39"/>
       <c r="J176" s="39" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="K176" s="42" t="str">
         <f t="shared" si="8"/>
@@ -27803,19 +27851,19 @@
       </c>
       <c r="L176" s="42"/>
       <c r="M176" s="39" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="N176" s="27" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="P176" s="27" t="s">
         <v>1343</v>
       </c>
       <c r="Q176" s="27" t="s">
+        <v>1950</v>
+      </c>
+      <c r="R176" s="27" t="s">
         <v>1951</v>
-      </c>
-      <c r="R176" s="27" t="s">
-        <v>1952</v>
       </c>
       <c r="T176" s="29"/>
       <c r="U176" s="29"/>
@@ -28254,7 +28302,7 @@
         <v>1376</v>
       </c>
       <c r="N180" s="27" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="O180" s="27"/>
       <c r="P180" s="9" t="s">
@@ -28367,7 +28415,7 @@
         <v>1385</v>
       </c>
       <c r="N181" s="27" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="O181" s="27"/>
       <c r="P181" s="9" t="s">
@@ -28567,17 +28615,17 @@
         <v>NO</v>
       </c>
       <c r="F183" s="29" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G183" s="31" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="H183" s="25" t="str">
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="I183" s="29" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="J183" s="31" t="s">
         <v>1400</v>
@@ -28587,13 +28635,13 @@
         <v>NO</v>
       </c>
       <c r="L183" s="25" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="M183" s="31" t="s">
         <v>1402</v>
       </c>
       <c r="N183" s="27" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="O183" s="27"/>
       <c r="P183" s="9" t="s">
@@ -28819,7 +28867,7 @@
         <v>1414</v>
       </c>
       <c r="N185" s="27" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="O185" s="27"/>
       <c r="P185" s="9" t="s">
@@ -28912,7 +28960,7 @@
       </c>
       <c r="I186" s="39"/>
       <c r="J186" s="39" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="K186" s="42" t="str">
         <f t="shared" si="8"/>
@@ -28923,13 +28971,13 @@
         <v>1421</v>
       </c>
       <c r="N186" s="27" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="P186" s="27" t="s">
         <v>1421</v>
       </c>
       <c r="Q186" s="27" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="R186" s="27" t="s">
         <v>1421</v>
@@ -29029,7 +29077,7 @@
         <v>1433</v>
       </c>
       <c r="N187" s="27" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="P187" s="27" t="s">
         <v>1429</v>
@@ -29241,7 +29289,7 @@
         <v>1444</v>
       </c>
       <c r="N189" s="27" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="P189" s="27" t="s">
         <v>1444</v>
@@ -29308,7 +29356,7 @@
         <v>1452</v>
       </c>
       <c r="N190" s="27" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P190" s="27" t="s">
         <v>1447</v>
@@ -29404,7 +29452,7 @@
         <v>NO</v>
       </c>
       <c r="I191" s="29" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="J191" s="29" t="s">
         <v>1460</v>
@@ -29420,7 +29468,7 @@
         <v>1462</v>
       </c>
       <c r="N191" s="27" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P191" s="27" t="s">
         <v>1458</v>
@@ -29532,7 +29580,7 @@
         <v>1466</v>
       </c>
       <c r="N192" s="27" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P192" s="27" t="s">
         <v>1468</v>
@@ -29644,7 +29692,7 @@
         <v>1485</v>
       </c>
       <c r="N193" s="27" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="O193" s="27"/>
       <c r="P193" s="9" t="s">
@@ -29757,7 +29805,7 @@
         <v>1494</v>
       </c>
       <c r="N194" s="27" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="O194" s="27"/>
       <c r="P194" s="9" t="s">
@@ -29983,7 +30031,7 @@
         <v>1511</v>
       </c>
       <c r="N196" s="27" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="O196" s="27"/>
       <c r="P196" s="15" t="s">
@@ -30076,7 +30124,7 @@
       </c>
       <c r="I197" s="39"/>
       <c r="J197" s="39" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="K197" s="42" t="str">
         <f t="shared" si="11"/>
@@ -30084,19 +30132,19 @@
       </c>
       <c r="L197" s="42"/>
       <c r="M197" s="39" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="N197" s="27" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="P197" s="27" t="s">
         <v>1513</v>
       </c>
       <c r="Q197" s="27" t="s">
+        <v>1955</v>
+      </c>
+      <c r="R197" s="27" t="s">
         <v>1956</v>
-      </c>
-      <c r="R197" s="27" t="s">
-        <v>1957</v>
       </c>
       <c r="T197" s="29"/>
       <c r="U197" s="29"/>
@@ -30193,7 +30241,7 @@
         <v>1521</v>
       </c>
       <c r="N198" s="27" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="O198" s="27"/>
       <c r="P198" s="9" t="s">
@@ -30264,10 +30312,10 @@
     </row>
     <row r="199" spans="1:39" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="27" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C199" s="27" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E199" s="42" t="str">
         <f t="shared" si="9"/>
@@ -30275,7 +30323,7 @@
       </c>
       <c r="F199" s="39"/>
       <c r="G199" s="39" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H199" s="42" t="str">
         <f t="shared" si="10"/>
@@ -30283,7 +30331,7 @@
       </c>
       <c r="I199" s="39"/>
       <c r="J199" s="39" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="K199" s="42" t="str">
         <f t="shared" si="11"/>
@@ -30291,19 +30339,19 @@
       </c>
       <c r="L199" s="42"/>
       <c r="M199" s="39" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="N199" s="27" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="P199" s="27" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="Q199" s="27" t="s">
+        <v>2002</v>
+      </c>
+      <c r="R199" s="27" t="s">
         <v>2003</v>
-      </c>
-      <c r="R199" s="27" t="s">
-        <v>2004</v>
       </c>
       <c r="T199" s="29"/>
       <c r="U199" s="29"/>
@@ -30352,7 +30400,7 @@
         <v>1529</v>
       </c>
       <c r="N200" s="27" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="O200" s="27"/>
       <c r="P200" s="9" t="s">
@@ -30465,7 +30513,7 @@
         <v>1532</v>
       </c>
       <c r="N201" s="27" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="O201" s="27"/>
       <c r="P201" s="9" t="s">
@@ -30778,7 +30826,7 @@
       </c>
       <c r="I204" s="39"/>
       <c r="J204" s="39" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="K204" s="42" t="str">
         <f t="shared" si="11"/>
@@ -30789,13 +30837,13 @@
         <v>1556</v>
       </c>
       <c r="N204" s="27" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="P204" s="27" t="s">
         <v>1556</v>
       </c>
       <c r="Q204" s="27" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R204" s="27" t="s">
         <v>1556</v>
@@ -30895,7 +30943,7 @@
         <v>1563</v>
       </c>
       <c r="N205" s="27" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="O205" s="27"/>
       <c r="P205" s="9" t="s">
@@ -31008,7 +31056,7 @@
         <v>1569</v>
       </c>
       <c r="N206" s="27" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="O206" s="27"/>
       <c r="P206" s="9" t="s">
@@ -31121,7 +31169,7 @@
         <v>1577</v>
       </c>
       <c r="N207" s="27" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="O207" s="27"/>
       <c r="P207" s="9" t="s">
@@ -31225,7 +31273,7 @@
         <v>1587</v>
       </c>
       <c r="N208" s="27" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="P208" s="27" t="s">
         <v>1583</v>
@@ -31334,7 +31382,7 @@
         <v>1597</v>
       </c>
       <c r="N209" s="27" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="O209" s="27"/>
       <c r="P209" s="9" t="s">
@@ -31560,7 +31608,7 @@
         <v>1614</v>
       </c>
       <c r="N211" s="27" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="O211" s="27"/>
       <c r="P211" s="9" t="s">
@@ -31673,7 +31721,7 @@
         <v>1623</v>
       </c>
       <c r="N212" s="27" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="O212" s="27"/>
       <c r="P212" s="9" t="s">
@@ -31786,7 +31834,7 @@
         <v>1633</v>
       </c>
       <c r="N213" s="27" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="O213" s="27"/>
       <c r="P213" s="9" t="s">
@@ -31899,7 +31947,7 @@
         <v>1637</v>
       </c>
       <c r="N214" s="27" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="O214" s="27"/>
       <c r="P214" s="9" t="s">
@@ -32012,7 +32060,7 @@
         <v>1646</v>
       </c>
       <c r="N215" s="27" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="P215" s="27" t="s">
         <v>1648</v>
@@ -32208,17 +32256,17 @@
         <v>SI</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H217" s="25" t="str">
         <f t="shared" si="10"/>
         <v>NO</v>
       </c>
       <c r="I217" s="29" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="J217" s="31" t="s">
         <v>1664</v>
@@ -32234,7 +32282,7 @@
         <v>1666</v>
       </c>
       <c r="N217" s="27" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="O217" s="27"/>
       <c r="P217" s="9" t="s">
@@ -32347,7 +32395,7 @@
         <v>1673</v>
       </c>
       <c r="N218" s="27" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="O218" s="27"/>
       <c r="P218" s="9" t="s">
@@ -32460,7 +32508,7 @@
         <v>1681</v>
       </c>
       <c r="N219" s="27" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="O219" s="27"/>
       <c r="P219" s="9" t="s">
@@ -32686,7 +32734,7 @@
         <v>1697</v>
       </c>
       <c r="N221" s="27" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="O221" s="27"/>
       <c r="P221" s="4" t="s">
@@ -32799,7 +32847,7 @@
         <v>1706</v>
       </c>
       <c r="N222" s="27" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="O222" s="27"/>
       <c r="P222" s="3" t="s">
@@ -32912,7 +32960,7 @@
         <v>1711</v>
       </c>
       <c r="N223" s="27" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="O223" s="27"/>
       <c r="P223" s="24" t="s">
@@ -32939,19 +32987,19 @@
         <v>1709</v>
       </c>
       <c r="Z223" s="18" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AA223" s="19" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AB223" s="19" t="s">
         <v>1709</v>
       </c>
       <c r="AC223" s="19" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AD223" s="19" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AE223" s="19" t="s">
         <v>56</v>
@@ -33025,7 +33073,7 @@
         <v>1716</v>
       </c>
       <c r="N224" s="27" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="O224" s="27"/>
       <c r="P224" s="3" t="s">
@@ -33364,7 +33412,7 @@
         <v>1742</v>
       </c>
       <c r="N227" s="27" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="O227" s="27"/>
       <c r="P227" s="9" t="s">
@@ -33477,7 +33525,7 @@
         <v>1751</v>
       </c>
       <c r="N228" s="27" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="O228" s="27"/>
       <c r="P228" s="9" t="s">
@@ -33590,7 +33638,7 @@
         <v>1760</v>
       </c>
       <c r="N229" s="27" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="O229" s="27"/>
       <c r="P229" s="9" t="s">
@@ -33727,22 +33775,22 @@
         <v>1765</v>
       </c>
       <c r="Z230" s="18" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AA230" s="19" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AB230" s="19" t="s">
         <v>1765</v>
       </c>
       <c r="AC230" s="19" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AD230" s="19" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AE230" s="19" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AF230" s="19" t="s">
         <v>1765</v>
@@ -33894,23 +33942,23 @@
         <v>NO</v>
       </c>
       <c r="I232" s="29" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="J232" s="31" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="K232" s="27" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L232" s="27" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="M232" s="9" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="N232" s="27" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="O232" s="27"/>
       <c r="P232" s="9" t="s">
@@ -33920,12 +33968,12 @@
         <v>1772</v>
       </c>
       <c r="R232" s="9" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="T232" s="25"/>
       <c r="U232" s="25"/>
       <c r="V232" s="6" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="W232" s="6" t="s">
         <v>1769</v>
@@ -33937,22 +33985,22 @@
         <v>1770</v>
       </c>
       <c r="Z232" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AA232" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AB232" s="6" t="s">
         <v>1770</v>
       </c>
       <c r="AC232" s="6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="AD232" s="6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="AE232" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AF232" s="6" t="s">
         <v>1770</v>
@@ -33981,100 +34029,100 @@
     </row>
     <row r="233" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B233" s="27" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D233" s="27" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E233" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H233" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I233" s="41" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="J233" s="9" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="K233" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L233" s="6" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="M233" s="9" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="N233" s="27" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="O233" s="27"/>
       <c r="P233" s="9" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Q233" s="9" t="s">
         <v>1781</v>
       </c>
-      <c r="Q233" s="9" t="s">
+      <c r="R233" s="9" t="s">
         <v>1782</v>
-      </c>
-      <c r="R233" s="9" t="s">
-        <v>1783</v>
       </c>
       <c r="T233" s="25"/>
       <c r="U233" s="25"/>
       <c r="V233" s="6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="W233" s="6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="X233" s="6" t="s">
         <v>1779</v>
       </c>
-      <c r="W233" s="6" t="s">
+      <c r="Y233" s="5" t="s">
         <v>1779</v>
       </c>
-      <c r="X233" s="6" t="s">
-        <v>1780</v>
-      </c>
-      <c r="Y233" s="5" t="s">
-        <v>1780</v>
-      </c>
       <c r="Z233" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AA233" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AB233" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="AC233" s="6" t="s">
         <v>1785</v>
       </c>
-      <c r="AA233" s="6" t="s">
+      <c r="AD233" s="6" t="s">
         <v>1785</v>
       </c>
-      <c r="AB233" s="6" t="s">
-        <v>1780</v>
-      </c>
-      <c r="AC233" s="6" t="s">
-        <v>1786</v>
-      </c>
-      <c r="AD233" s="6" t="s">
-        <v>1786</v>
-      </c>
       <c r="AE233" s="6" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AF233" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AG233" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AH233" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AI233" s="5">
         <v>226</v>
@@ -34094,100 +34142,100 @@
     </row>
     <row r="234" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B234" s="27" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E234" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H234" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I234" s="41" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="J234" s="9" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="K234" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L234" s="6" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="M234" s="9" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="N234" s="27" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="O234" s="27"/>
       <c r="P234" s="9" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="Q234" s="9" t="s">
+        <v>1788</v>
+      </c>
+      <c r="R234" s="9" t="s">
         <v>1789</v>
-      </c>
-      <c r="R234" s="9" t="s">
-        <v>1790</v>
       </c>
       <c r="T234" s="25"/>
       <c r="U234" s="25"/>
       <c r="V234" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="W234" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="X234" s="6" t="s">
         <v>1787</v>
       </c>
-      <c r="W234" s="6" t="s">
+      <c r="Y234" s="6" t="s">
         <v>1787</v>
       </c>
-      <c r="X234" s="6" t="s">
-        <v>1788</v>
-      </c>
-      <c r="Y234" s="6" t="s">
-        <v>1788</v>
-      </c>
       <c r="Z234" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AA234" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AB234" s="6" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AC234" s="6" t="s">
         <v>1791</v>
       </c>
-      <c r="AA234" s="6" t="s">
+      <c r="AD234" s="6" t="s">
         <v>1791</v>
       </c>
-      <c r="AB234" s="6" t="s">
-        <v>1788</v>
-      </c>
-      <c r="AC234" s="6" t="s">
-        <v>1792</v>
-      </c>
-      <c r="AD234" s="6" t="s">
-        <v>1792</v>
-      </c>
       <c r="AE234" s="6" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AF234" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AG234" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AH234" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AI234" s="5">
         <v>230</v>
@@ -34207,7 +34255,7 @@
     </row>
     <row r="235" spans="1:39" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="27" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E235" s="42" t="str">
         <f t="shared" si="9"/>
@@ -34215,7 +34263,7 @@
       </c>
       <c r="F235" s="39"/>
       <c r="G235" s="39" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="H235" s="42" t="str">
         <f t="shared" si="10"/>
@@ -34223,7 +34271,7 @@
       </c>
       <c r="I235" s="39"/>
       <c r="J235" s="39" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K235" s="42" t="str">
         <f t="shared" si="11"/>
@@ -34231,119 +34279,119 @@
       </c>
       <c r="L235" s="42"/>
       <c r="M235" s="39" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="N235" s="27" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="P235" s="27" t="s">
+        <v>2004</v>
+      </c>
+      <c r="Q235" s="27" t="s">
         <v>2005</v>
       </c>
-      <c r="Q235" s="27" t="s">
+      <c r="R235" s="27" t="s">
         <v>2006</v>
-      </c>
-      <c r="R235" s="27" t="s">
-        <v>2007</v>
       </c>
       <c r="T235" s="29"/>
       <c r="U235" s="29"/>
     </row>
     <row r="236" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B236" s="27" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E236" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H236" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I236" s="41" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="J236" s="9" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="K236" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L236" s="6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="M236" s="9" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="N236" s="27" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="O236" s="27"/>
       <c r="P236" s="9" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q236" s="9" t="s">
         <v>1795</v>
       </c>
-      <c r="Q236" s="9" t="s">
+      <c r="R236" s="9" t="s">
         <v>1796</v>
-      </c>
-      <c r="R236" s="9" t="s">
-        <v>1797</v>
       </c>
       <c r="T236" s="25"/>
       <c r="U236" s="25"/>
       <c r="V236" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="W236" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="X236" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="W236" s="6" t="s">
+      <c r="Y236" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="X236" s="6" t="s">
-        <v>1794</v>
-      </c>
-      <c r="Y236" s="6" t="s">
-        <v>1794</v>
-      </c>
       <c r="Z236" s="6" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AA236" s="6" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AB236" s="6" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AC236" s="6" t="s">
         <v>1798</v>
       </c>
-      <c r="AA236" s="6" t="s">
+      <c r="AD236" s="6" t="s">
         <v>1798</v>
       </c>
-      <c r="AB236" s="6" t="s">
-        <v>1794</v>
-      </c>
-      <c r="AC236" s="6" t="s">
-        <v>1799</v>
-      </c>
-      <c r="AD236" s="6" t="s">
-        <v>1799</v>
-      </c>
       <c r="AE236" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AF236" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="AG236" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="AH236" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="AI236" s="5">
         <v>234</v>
@@ -34363,16 +34411,16 @@
     </row>
     <row r="237" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B237" s="27" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E237" s="6" t="str">
         <f t="shared" si="9"/>
@@ -34389,74 +34437,74 @@
         <v>SI</v>
       </c>
       <c r="I237" s="41" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J237" s="9" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="K237" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L237" s="6" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="M237" s="9" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="N237" s="27" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="O237" s="27"/>
       <c r="P237" s="9" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Q237" s="9" t="s">
         <v>1801</v>
       </c>
-      <c r="Q237" s="9" t="s">
-        <v>1802</v>
-      </c>
       <c r="R237" s="9" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="T237" s="25"/>
       <c r="U237" s="25"/>
       <c r="V237" s="6" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="W237" s="6" t="s">
         <v>113</v>
       </c>
       <c r="X237" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="Y237" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="Z237" s="6" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA237" s="6" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AB237" s="6" t="s">
+        <v>1799</v>
+      </c>
+      <c r="AC237" s="6" t="s">
         <v>1807</v>
       </c>
-      <c r="AA237" s="6" t="s">
+      <c r="AD237" s="6" t="s">
         <v>1807</v>
       </c>
-      <c r="AB237" s="6" t="s">
-        <v>1800</v>
-      </c>
-      <c r="AC237" s="6" t="s">
-        <v>1808</v>
-      </c>
-      <c r="AD237" s="6" t="s">
-        <v>1808</v>
-      </c>
       <c r="AE237" s="6" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="AF237" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AG237" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AH237" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AI237" s="5">
         <v>231</v>
@@ -34476,100 +34524,100 @@
     </row>
     <row r="238" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B238" s="27" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E238" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H238" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I238" s="41" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="K238" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L238" s="6" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="M238" s="9" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="N238" s="27" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="O238" s="27"/>
       <c r="P238" s="9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="Q238" s="9" t="s">
         <v>1811</v>
       </c>
-      <c r="Q238" s="9" t="s">
-        <v>1812</v>
-      </c>
       <c r="R238" s="9" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="T238" s="25"/>
       <c r="U238" s="25"/>
       <c r="V238" s="6" t="s">
+        <v>1808</v>
+      </c>
+      <c r="W238" s="6" t="s">
+        <v>1808</v>
+      </c>
+      <c r="X238" s="6" t="s">
         <v>1809</v>
       </c>
-      <c r="W238" s="6" t="s">
+      <c r="Y238" s="6" t="s">
         <v>1809</v>
       </c>
-      <c r="X238" s="6" t="s">
-        <v>1810</v>
-      </c>
-      <c r="Y238" s="6" t="s">
-        <v>1810</v>
-      </c>
       <c r="Z238" s="6" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AA238" s="6" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AB238" s="6" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AC238" s="6" t="s">
         <v>1816</v>
       </c>
-      <c r="AA238" s="6" t="s">
+      <c r="AD238" s="6" t="s">
         <v>1816</v>
       </c>
-      <c r="AB238" s="6" t="s">
-        <v>1810</v>
-      </c>
-      <c r="AC238" s="6" t="s">
-        <v>1817</v>
-      </c>
-      <c r="AD238" s="6" t="s">
-        <v>1817</v>
-      </c>
       <c r="AE238" s="6" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AF238" s="6" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AG238" s="6" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AH238" s="6" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AI238" s="5">
         <v>235</v>
@@ -34589,88 +34637,88 @@
     </row>
     <row r="239" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B239" s="27" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D239" s="27" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E239" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H239" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I239" s="41" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="J239" s="9" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="K239" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L239" s="6" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="M239" s="9" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="N239" s="27" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="O239" s="27"/>
       <c r="P239" s="9" t="s">
+        <v>1819</v>
+      </c>
+      <c r="Q239" s="9" t="s">
         <v>1820</v>
       </c>
-      <c r="Q239" s="9" t="s">
-        <v>1821</v>
-      </c>
       <c r="R239" s="9" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="T239" s="25"/>
       <c r="U239" s="25"/>
       <c r="V239" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="W239" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="X239" s="6" t="s">
         <v>1818</v>
       </c>
-      <c r="W239" s="6" t="s">
+      <c r="Y239" s="6" t="s">
         <v>1818</v>
       </c>
-      <c r="X239" s="6" t="s">
-        <v>1819</v>
-      </c>
-      <c r="Y239" s="6" t="s">
-        <v>1819</v>
-      </c>
       <c r="Z239" s="6" t="s">
+        <v>1824</v>
+      </c>
+      <c r="AA239" s="6" t="s">
         <v>1825</v>
       </c>
-      <c r="AA239" s="6" t="s">
+      <c r="AB239" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AC239" s="6" t="s">
         <v>1826</v>
       </c>
-      <c r="AB239" s="6" t="s">
-        <v>1819</v>
-      </c>
-      <c r="AC239" s="6" t="s">
-        <v>1827</v>
-      </c>
       <c r="AD239" s="6" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="AE239" s="6" t="s">
         <v>56</v>
@@ -34679,10 +34727,10 @@
         <v>56</v>
       </c>
       <c r="AG239" s="6" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AH239" s="6" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AI239" s="5">
         <v>94</v>
@@ -34702,100 +34750,100 @@
     </row>
     <row r="240" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B240" s="27" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D240" s="27" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E240" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H240" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I240" s="41" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="K240" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L240" s="6" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="M240" s="9" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="N240" s="27" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="O240" s="27"/>
       <c r="P240" s="9" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="Q240" s="9" t="s">
+        <v>1829</v>
+      </c>
+      <c r="R240" s="9" t="s">
         <v>1830</v>
-      </c>
-      <c r="R240" s="9" t="s">
-        <v>1831</v>
       </c>
       <c r="T240" s="25"/>
       <c r="U240" s="25"/>
       <c r="V240" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="W240" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="X240" s="6" t="s">
         <v>1828</v>
       </c>
-      <c r="W240" s="6" t="s">
+      <c r="Y240" s="6" t="s">
         <v>1828</v>
       </c>
-      <c r="X240" s="6" t="s">
-        <v>1829</v>
-      </c>
-      <c r="Y240" s="6" t="s">
-        <v>1829</v>
-      </c>
       <c r="Z240" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AA240" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AB240" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AC240" s="6" t="s">
         <v>1832</v>
       </c>
-      <c r="AA240" s="6" t="s">
+      <c r="AD240" s="6" t="s">
         <v>1832</v>
       </c>
-      <c r="AB240" s="6" t="s">
-        <v>1829</v>
-      </c>
-      <c r="AC240" s="6" t="s">
-        <v>1833</v>
-      </c>
-      <c r="AD240" s="6" t="s">
-        <v>1833</v>
-      </c>
       <c r="AE240" s="6" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="AF240" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AG240" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AH240" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AI240" s="5">
         <v>191</v>
@@ -34815,100 +34863,100 @@
     </row>
     <row r="241" spans="1:39" ht="27" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B241" s="27" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="E241" s="25" t="str">
         <f t="shared" si="9"/>
         <v>NO</v>
       </c>
       <c r="F241" s="25" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="G241" s="31" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H241" s="25" t="str">
         <f t="shared" si="10"/>
         <v>NO</v>
       </c>
       <c r="I241" s="29" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="J241" s="31" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="K241" s="25" t="str">
         <f t="shared" si="11"/>
         <v>NO</v>
       </c>
       <c r="L241" s="25" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="M241" s="31" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="N241" s="27" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="O241" s="27"/>
       <c r="P241" s="9" t="s">
+        <v>1835</v>
+      </c>
+      <c r="Q241" s="9" t="s">
         <v>1836</v>
       </c>
-      <c r="Q241" s="9" t="s">
+      <c r="R241" s="9" t="s">
         <v>1837</v>
-      </c>
-      <c r="R241" s="9" t="s">
-        <v>1838</v>
       </c>
       <c r="T241" s="25"/>
       <c r="U241" s="25"/>
       <c r="V241" s="6" t="s">
+        <v>1833</v>
+      </c>
+      <c r="W241" s="6" t="s">
+        <v>1833</v>
+      </c>
+      <c r="X241" s="6" t="s">
         <v>1834</v>
       </c>
-      <c r="W241" s="6" t="s">
+      <c r="Y241" s="6" t="s">
         <v>1834</v>
       </c>
-      <c r="X241" s="6" t="s">
-        <v>1835</v>
-      </c>
-      <c r="Y241" s="6" t="s">
-        <v>1835</v>
-      </c>
       <c r="Z241" s="6" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AA241" s="6" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AB241" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AC241" s="6" t="s">
         <v>1839</v>
       </c>
-      <c r="AA241" s="6" t="s">
+      <c r="AD241" s="6" t="s">
         <v>1839</v>
       </c>
-      <c r="AB241" s="6" t="s">
-        <v>1835</v>
-      </c>
-      <c r="AC241" s="6" t="s">
-        <v>1840</v>
-      </c>
-      <c r="AD241" s="6" t="s">
-        <v>1840</v>
-      </c>
       <c r="AE241" s="6" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AF241" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="AG241" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="AH241" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="AI241" s="5">
         <v>236</v>
@@ -34928,88 +34976,88 @@
     </row>
     <row r="242" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B242" s="27" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E242" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H242" s="25" t="str">
         <f t="shared" si="10"/>
         <v>NO</v>
       </c>
       <c r="I242" s="29" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="K242" s="27" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L242" s="27" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="M242" s="9" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="N242" s="27" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="O242" s="27"/>
       <c r="P242" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="Q242" s="9" t="s">
         <v>1843</v>
       </c>
-      <c r="Q242" s="9" t="s">
-        <v>1844</v>
-      </c>
       <c r="R242" s="9" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="T242" s="25"/>
       <c r="U242" s="25"/>
       <c r="V242" s="6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="W242" s="6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="X242" s="6" t="s">
         <v>1841</v>
       </c>
-      <c r="W242" s="6" t="s">
+      <c r="Y242" s="6" t="s">
         <v>1841</v>
       </c>
-      <c r="X242" s="6" t="s">
-        <v>1842</v>
-      </c>
-      <c r="Y242" s="6" t="s">
-        <v>1842</v>
-      </c>
       <c r="Z242" s="6" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AA242" s="6" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AB242" s="6" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AC242" s="6" t="s">
         <v>1848</v>
       </c>
-      <c r="AA242" s="6" t="s">
+      <c r="AD242" s="6" t="s">
         <v>1848</v>
-      </c>
-      <c r="AB242" s="6" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AC242" s="6" t="s">
-        <v>1849</v>
-      </c>
-      <c r="AD242" s="6" t="s">
-        <v>1849</v>
       </c>
       <c r="AE242" s="6" t="s">
         <v>56</v>
@@ -35018,10 +35066,10 @@
         <v>56</v>
       </c>
       <c r="AG242" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="AH242" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="AI242" s="5">
         <v>239</v>
@@ -35041,13 +35089,13 @@
     </row>
     <row r="243" spans="1:39" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="27" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B243" s="27" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E243" s="42" t="str">
         <f t="shared" si="9"/>
@@ -35055,7 +35103,7 @@
       </c>
       <c r="F243" s="39"/>
       <c r="G243" s="39" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H243" s="42" t="str">
         <f t="shared" si="10"/>
@@ -35063,7 +35111,7 @@
       </c>
       <c r="I243" s="39"/>
       <c r="J243" s="39" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="K243" s="42" t="str">
         <f t="shared" si="11"/>
@@ -35071,57 +35119,57 @@
       </c>
       <c r="L243" s="42"/>
       <c r="M243" s="39" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="N243" s="27" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="P243" s="27" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="Q243" s="27" t="s">
+        <v>1958</v>
+      </c>
+      <c r="R243" s="27" t="s">
         <v>1959</v>
-      </c>
-      <c r="R243" s="27" t="s">
-        <v>1960</v>
       </c>
       <c r="T243" s="29"/>
       <c r="U243" s="29"/>
       <c r="V243" s="27" t="s">
+        <v>1849</v>
+      </c>
+      <c r="W243" s="27" t="s">
+        <v>1849</v>
+      </c>
+      <c r="X243" s="27" t="s">
         <v>1850</v>
       </c>
-      <c r="W243" s="27" t="s">
+      <c r="Z243" s="27" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AA243" s="27" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AB243" s="27" t="s">
         <v>1850</v>
       </c>
-      <c r="X243" s="27" t="s">
+      <c r="AC243" s="27" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AD243" s="27" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AE243" s="27" t="s">
         <v>1851</v>
       </c>
-      <c r="Z243" s="27" t="s">
-        <v>1852</v>
-      </c>
-      <c r="AA243" s="27" t="s">
-        <v>1852</v>
-      </c>
-      <c r="AB243" s="27" t="s">
-        <v>1851</v>
-      </c>
-      <c r="AC243" s="27" t="s">
-        <v>1853</v>
-      </c>
-      <c r="AD243" s="27" t="s">
-        <v>1853</v>
-      </c>
-      <c r="AE243" s="27" t="s">
-        <v>1852</v>
-      </c>
       <c r="AF243" s="27" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="AG243" s="27" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="AH243" s="27" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="AI243" s="27">
         <v>240</v>
@@ -35141,100 +35189,100 @@
     </row>
     <row r="244" spans="1:39" ht="27" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B244" s="27" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D244" s="27" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E244" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="H244" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I244" s="41" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="K244" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L244" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="M244" s="9" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="N244" s="27" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="O244" s="27"/>
       <c r="P244" s="9" t="s">
+        <v>1855</v>
+      </c>
+      <c r="Q244" s="9" t="s">
         <v>1856</v>
       </c>
-      <c r="Q244" s="9" t="s">
-        <v>1857</v>
-      </c>
       <c r="R244" s="9" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="T244" s="25"/>
       <c r="U244" s="25"/>
       <c r="V244" s="6" t="s">
+        <v>1853</v>
+      </c>
+      <c r="W244" s="6" t="s">
+        <v>1853</v>
+      </c>
+      <c r="X244" s="6" t="s">
         <v>1854</v>
       </c>
-      <c r="W244" s="6" t="s">
+      <c r="Y244" s="6" t="s">
         <v>1854</v>
       </c>
-      <c r="X244" s="6" t="s">
-        <v>1855</v>
-      </c>
-      <c r="Y244" s="6" t="s">
-        <v>1855</v>
-      </c>
       <c r="Z244" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AA244" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AB244" s="6" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AC244" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="AA244" s="6" t="s">
+      <c r="AD244" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="AB244" s="6" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AC244" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="AD244" s="6" t="s">
-        <v>1861</v>
-      </c>
       <c r="AE244" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AF244" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AG244" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AH244" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AI244" s="5">
         <v>237</v>
@@ -35254,100 +35302,100 @@
     </row>
     <row r="245" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B245" s="27" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D245" s="27" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E245" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="H245" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I245" s="41" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="K245" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="M245" s="9" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="N245" s="27" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="O245" s="27"/>
       <c r="P245" s="9" t="s">
+        <v>1863</v>
+      </c>
+      <c r="Q245" s="9" t="s">
         <v>1864</v>
       </c>
-      <c r="Q245" s="9" t="s">
+      <c r="R245" s="9" t="s">
         <v>1865</v>
-      </c>
-      <c r="R245" s="9" t="s">
-        <v>1866</v>
       </c>
       <c r="T245" s="25"/>
       <c r="U245" s="25"/>
       <c r="V245" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="W245" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="X245" s="6" t="s">
         <v>1862</v>
       </c>
-      <c r="W245" s="6" t="s">
+      <c r="Y245" s="6" t="s">
         <v>1862</v>
       </c>
-      <c r="X245" s="6" t="s">
-        <v>1863</v>
-      </c>
-      <c r="Y245" s="6" t="s">
-        <v>1863</v>
-      </c>
       <c r="Z245" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AA245" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AB245" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AC245" s="6" t="s">
         <v>1867</v>
       </c>
-      <c r="AA245" s="6" t="s">
+      <c r="AD245" s="6" t="s">
         <v>1867</v>
       </c>
-      <c r="AB245" s="6" t="s">
-        <v>1863</v>
-      </c>
-      <c r="AC245" s="6" t="s">
-        <v>1868</v>
-      </c>
-      <c r="AD245" s="6" t="s">
-        <v>1868</v>
-      </c>
       <c r="AE245" s="6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="AF245" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AG245" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AH245" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AI245" s="5">
         <v>155</v>
@@ -35367,88 +35415,88 @@
     </row>
     <row r="246" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B246" s="27" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E246" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H246" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I246" s="41" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="K246" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="M246" s="9" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="N246" s="27" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="O246" s="27"/>
       <c r="P246" s="9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="Q246" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="Q246" s="9" t="s">
+      <c r="R246" s="9" t="s">
         <v>1872</v>
-      </c>
-      <c r="R246" s="9" t="s">
-        <v>1873</v>
       </c>
       <c r="T246" s="25"/>
       <c r="U246" s="25"/>
       <c r="V246" s="6" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="W246" s="6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="X246" s="6" t="s">
         <v>1869</v>
       </c>
-      <c r="X246" s="6" t="s">
-        <v>1870</v>
-      </c>
       <c r="Y246" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="Z246" s="6" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AA246" s="6" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AB246" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AC246" s="6" t="s">
         <v>1875</v>
       </c>
-      <c r="AA246" s="6" t="s">
+      <c r="AD246" s="6" t="s">
         <v>1875</v>
-      </c>
-      <c r="AB246" s="6" t="s">
-        <v>1870</v>
-      </c>
-      <c r="AC246" s="6" t="s">
-        <v>1876</v>
-      </c>
-      <c r="AD246" s="6" t="s">
-        <v>1876</v>
       </c>
       <c r="AE246" s="6" t="s">
         <v>56</v>
@@ -35457,10 +35505,10 @@
         <v>56</v>
       </c>
       <c r="AG246" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="AH246" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="AI246" s="5">
         <v>243</v>
@@ -35480,73 +35528,73 @@
     </row>
     <row r="247" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B247" s="27" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E247" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H247" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I247" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="K247" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L247" s="6" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="M247" s="9" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="N247" s="27" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="O247" s="27"/>
       <c r="P247" s="9" t="s">
+        <v>1878</v>
+      </c>
+      <c r="Q247" s="9" t="s">
         <v>1879</v>
       </c>
-      <c r="Q247" s="9" t="s">
+      <c r="R247" s="9" t="s">
         <v>1880</v>
-      </c>
-      <c r="R247" s="9" t="s">
-        <v>1881</v>
       </c>
       <c r="T247" s="25"/>
       <c r="U247" s="25"/>
       <c r="V247" s="6" t="s">
+        <v>1876</v>
+      </c>
+      <c r="W247" s="6" t="s">
+        <v>1876</v>
+      </c>
+      <c r="X247" s="6" t="s">
         <v>1877</v>
       </c>
-      <c r="W247" s="6" t="s">
+      <c r="Y247" s="6" t="s">
         <v>1877</v>
-      </c>
-      <c r="X247" s="6" t="s">
-        <v>1878</v>
-      </c>
-      <c r="Y247" s="6" t="s">
-        <v>1878</v>
       </c>
       <c r="Z247" s="6" t="s">
         <v>1475</v>
@@ -35555,25 +35603,25 @@
         <v>1475</v>
       </c>
       <c r="AB247" s="6" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="AC247" s="6" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="AD247" s="6" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="AE247" s="6" t="s">
         <v>1475</v>
       </c>
       <c r="AF247" s="6" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="AG247" s="6" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="AH247" s="6" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="AI247" s="5">
         <v>244</v>
@@ -35593,100 +35641,100 @@
     </row>
     <row r="248" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B248" s="27" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D248" s="27" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E248" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H248" s="25" t="str">
         <f t="shared" si="10"/>
         <v>NO</v>
       </c>
       <c r="I248" s="29" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="J248" s="31" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="K248" s="27" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L248" s="27" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="M248" s="9" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="N248" s="27" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="O248" s="27"/>
       <c r="P248" s="9" t="s">
+        <v>1884</v>
+      </c>
+      <c r="Q248" s="9" t="s">
         <v>1885</v>
       </c>
-      <c r="Q248" s="9" t="s">
-        <v>1886</v>
-      </c>
       <c r="R248" s="9" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="T248" s="25"/>
       <c r="U248" s="25"/>
       <c r="V248" s="6" t="s">
+        <v>1882</v>
+      </c>
+      <c r="W248" s="6" t="s">
+        <v>1882</v>
+      </c>
+      <c r="X248" s="6" t="s">
         <v>1883</v>
       </c>
-      <c r="W248" s="6" t="s">
+      <c r="Y248" s="6" t="s">
         <v>1883</v>
       </c>
-      <c r="X248" s="6" t="s">
-        <v>1884</v>
-      </c>
-      <c r="Y248" s="6" t="s">
-        <v>1884</v>
-      </c>
       <c r="Z248" s="6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AA248" s="6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AB248" s="6" t="s">
+        <v>1883</v>
+      </c>
+      <c r="AC248" s="6" t="s">
         <v>1890</v>
       </c>
-      <c r="AA248" s="6" t="s">
+      <c r="AD248" s="6" t="s">
         <v>1890</v>
       </c>
-      <c r="AB248" s="6" t="s">
-        <v>1884</v>
-      </c>
-      <c r="AC248" s="6" t="s">
+      <c r="AE248" s="6" t="s">
         <v>1891</v>
       </c>
-      <c r="AD248" s="6" t="s">
-        <v>1891</v>
-      </c>
-      <c r="AE248" s="6" t="s">
-        <v>1892</v>
-      </c>
       <c r="AF248" s="6" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="AG248" s="6" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="AH248" s="6" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="AI248" s="5">
         <v>249</v>
@@ -35706,100 +35754,100 @@
     </row>
     <row r="249" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B249" s="27" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D249" s="27" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E249" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H249" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I249" s="41" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="K249" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L249" s="6" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="M249" s="9" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="N249" s="27" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="O249" s="27"/>
       <c r="P249" s="9" t="s">
+        <v>1894</v>
+      </c>
+      <c r="Q249" s="9" t="s">
         <v>1895</v>
       </c>
-      <c r="Q249" s="9" t="s">
-        <v>1896</v>
-      </c>
       <c r="R249" s="9" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="T249" s="25"/>
       <c r="U249" s="25"/>
       <c r="V249" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="W249" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="X249" s="6" t="s">
         <v>1893</v>
       </c>
-      <c r="W249" s="6" t="s">
+      <c r="Y249" s="6" t="s">
         <v>1893</v>
       </c>
-      <c r="X249" s="6" t="s">
-        <v>1894</v>
-      </c>
-      <c r="Y249" s="6" t="s">
-        <v>1894</v>
-      </c>
       <c r="Z249" s="6" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AA249" s="6" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AB249" s="6" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AC249" s="6" t="s">
         <v>1900</v>
       </c>
-      <c r="AA249" s="6" t="s">
+      <c r="AD249" s="6" t="s">
         <v>1900</v>
       </c>
-      <c r="AB249" s="6" t="s">
-        <v>1894</v>
-      </c>
-      <c r="AC249" s="6" t="s">
-        <v>1901</v>
-      </c>
-      <c r="AD249" s="6" t="s">
-        <v>1901</v>
-      </c>
       <c r="AE249" s="6" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AF249" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="AG249" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="AH249" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="AI249" s="5">
         <v>202</v>
@@ -35819,100 +35867,100 @@
     </row>
     <row r="250" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B250" s="27" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D250" s="27" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E250" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H250" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I250" s="41" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="K250" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L250" s="6" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="M250" s="9" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="N250" s="27" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="O250" s="27"/>
       <c r="P250" s="9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="Q250" s="9" t="s">
         <v>1904</v>
       </c>
-      <c r="Q250" s="9" t="s">
+      <c r="R250" s="9" t="s">
         <v>1905</v>
-      </c>
-      <c r="R250" s="9" t="s">
-        <v>1906</v>
       </c>
       <c r="T250" s="25"/>
       <c r="U250" s="25"/>
       <c r="V250" s="6" t="s">
+        <v>1901</v>
+      </c>
+      <c r="W250" s="6" t="s">
+        <v>1901</v>
+      </c>
+      <c r="X250" s="6" t="s">
         <v>1902</v>
       </c>
-      <c r="W250" s="6" t="s">
+      <c r="Y250" s="6" t="s">
         <v>1902</v>
       </c>
-      <c r="X250" s="6" t="s">
-        <v>1903</v>
-      </c>
-      <c r="Y250" s="6" t="s">
-        <v>1903</v>
-      </c>
       <c r="Z250" s="6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AA250" s="6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AB250" s="6" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AC250" s="6" t="s">
         <v>1908</v>
       </c>
-      <c r="AA250" s="6" t="s">
+      <c r="AD250" s="6" t="s">
         <v>1908</v>
       </c>
-      <c r="AB250" s="6" t="s">
-        <v>1903</v>
-      </c>
-      <c r="AC250" s="6" t="s">
-        <v>1909</v>
-      </c>
-      <c r="AD250" s="6" t="s">
-        <v>1909</v>
-      </c>
       <c r="AE250" s="6" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="AF250" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="AG250" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="AH250" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="AI250" s="5">
         <v>251</v>
@@ -35932,100 +35980,100 @@
     </row>
     <row r="251" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B251" s="27" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D251" s="27" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E251" s="6" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H251" s="6" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
       <c r="I251" s="41" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="K251" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="L251" s="6" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="M251" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="N251" s="27" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="O251" s="27"/>
       <c r="P251" s="4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Q251" s="4" t="s">
         <v>1912</v>
       </c>
-      <c r="Q251" s="4" t="s">
+      <c r="R251" s="4" t="s">
         <v>1913</v>
-      </c>
-      <c r="R251" s="4" t="s">
-        <v>1914</v>
       </c>
       <c r="T251" s="25"/>
       <c r="U251" s="25"/>
       <c r="V251" s="6" t="s">
+        <v>1909</v>
+      </c>
+      <c r="W251" s="6" t="s">
+        <v>1909</v>
+      </c>
+      <c r="X251" s="6" t="s">
         <v>1910</v>
       </c>
-      <c r="W251" s="6" t="s">
+      <c r="Y251" s="6" t="s">
         <v>1910</v>
       </c>
-      <c r="X251" s="6" t="s">
-        <v>1911</v>
-      </c>
-      <c r="Y251" s="6" t="s">
-        <v>1911</v>
-      </c>
       <c r="Z251" s="6" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AA251" s="6" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AB251" s="6" t="s">
+        <v>1910</v>
+      </c>
+      <c r="AC251" s="6" t="s">
         <v>1915</v>
       </c>
-      <c r="AA251" s="6" t="s">
+      <c r="AD251" s="6" t="s">
         <v>1915</v>
       </c>
-      <c r="AB251" s="6" t="s">
-        <v>1911</v>
-      </c>
-      <c r="AC251" s="6" t="s">
-        <v>1916</v>
-      </c>
-      <c r="AD251" s="6" t="s">
-        <v>1916</v>
-      </c>
       <c r="AE251" s="6" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="AF251" s="6" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="AG251" s="6" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="AH251" s="6" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="AI251" s="5">
         <v>181</v>
@@ -36169,10 +36217,10 @@
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
       <c r="Q255" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="R255" s="28" t="s">
         <v>1979</v>
-      </c>
-      <c r="R255" s="28" t="s">
-        <v>1980</v>
       </c>
       <c r="T255" s="29"/>
       <c r="U255" s="29"/>
@@ -36203,12 +36251,12 @@
       </c>
       <c r="H256" s="25"/>
       <c r="J256" s="11" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="K256" s="25"/>
       <c r="L256" s="25"/>
       <c r="M256" s="11" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N256" s="25"/>
       <c r="O256" s="25"/>
@@ -36216,10 +36264,10 @@
         <v>132</v>
       </c>
       <c r="Q256" s="11" t="s">
+        <v>1926</v>
+      </c>
+      <c r="R256" s="11" t="s">
         <v>1927</v>
-      </c>
-      <c r="R256" s="11" t="s">
-        <v>1928</v>
       </c>
       <c r="T256" s="25"/>
       <c r="U256" s="25"/>
@@ -36286,12 +36334,12 @@
       </c>
       <c r="H257" s="25"/>
       <c r="J257" s="11" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="K257" s="25"/>
       <c r="L257" s="25"/>
       <c r="M257" s="11" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="N257" s="25"/>
       <c r="O257" s="25"/>
@@ -36299,10 +36347,10 @@
         <v>465</v>
       </c>
       <c r="Q257" s="11" t="s">
+        <v>1930</v>
+      </c>
+      <c r="R257" s="11" t="s">
         <v>1931</v>
-      </c>
-      <c r="R257" s="11" t="s">
-        <v>1932</v>
       </c>
       <c r="T257" s="25"/>
       <c r="U257" s="25"/>
@@ -36363,7 +36411,7 @@
         <v>966</v>
       </c>
       <c r="C258" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E258" s="25"/>
       <c r="F258" s="25"/>
@@ -36372,7 +36420,7 @@
       </c>
       <c r="H258" s="25"/>
       <c r="J258" s="11" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="K258" s="25"/>
       <c r="L258" s="25"/>
@@ -36385,7 +36433,7 @@
         <v>965</v>
       </c>
       <c r="Q258" s="11" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="R258" s="11" t="s">
         <v>965</v>
@@ -36459,24 +36507,24 @@
       <c r="H259" s="25"/>
       <c r="I259" s="41"/>
       <c r="J259" s="27" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="K259" s="25"/>
       <c r="L259" s="25"/>
       <c r="M259" s="27" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="N259" s="27" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="P259" s="27" t="s">
         <v>1473</v>
       </c>
       <c r="Q259" s="27" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R259" s="27" t="s">
         <v>1954</v>
-      </c>
-      <c r="R259" s="27" t="s">
-        <v>1955</v>
       </c>
       <c r="T259" s="29"/>
       <c r="U259" s="29"/>
@@ -36535,23 +36583,23 @@
     <row r="260" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="D260" s="27" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="27" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G260" s="28" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="H260" s="2"/>
       <c r="I260" s="41" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="J260" s="1"/>
       <c r="K260" s="2"/>
       <c r="L260" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -36619,12 +36667,12 @@
       <c r="A262" s="2"/>
       <c r="B262" s="27"/>
       <c r="C262" s="27" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="27" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H262" s="2"/>
       <c r="J262" s="2"/>
@@ -36659,12 +36707,12 @@
       <c r="A263" s="2"/>
       <c r="B263" s="27"/>
       <c r="C263" s="27" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="27" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H263" s="2"/>
       <c r="J263" s="2"/>
@@ -36697,10 +36745,10 @@
     </row>
     <row r="264" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C264" s="27" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G264" s="27" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J264" s="2"/>
       <c r="M264" s="2"/>
@@ -36728,10 +36776,10 @@
     </row>
     <row r="265" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C265" s="27" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="G265" s="27" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="J265" s="2"/>
       <c r="M265" s="2"/>
@@ -36759,10 +36807,10 @@
     </row>
     <row r="266" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C266" s="27" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G266" s="27" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="J266" s="2"/>
       <c r="M266" s="2"/>
@@ -36790,10 +36838,10 @@
     </row>
     <row r="267" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="27" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G267" s="27" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
   </sheetData>
